--- a/completezza funzionale.xlsx
+++ b/completezza funzionale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salvc\Desktop\Ratatouille23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B53172-0322-4219-89F5-E67B53C75671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F6C323-6C90-411B-9DAB-23D4CC109EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="1035" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -154,11 +154,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -442,7 +441,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +532,6 @@
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">

--- a/completezza funzionale.xlsx
+++ b/completezza funzionale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salvc\Desktop\Ratatouille23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F6C323-6C90-411B-9DAB-23D4CC109EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04A0D89-6C7A-4FB9-AE1C-12CDAF20CA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,6 +501,7 @@
       <c r="A3" t="s">
         <v>14</v>
       </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/completezza funzionale.xlsx
+++ b/completezza funzionale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salvc\Desktop\Ratatouille23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04A0D89-6C7A-4FB9-AE1C-12CDAF20CA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651DD8A0-F0EF-41E2-AF4A-BE1B34A396D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Funzionalità #1</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>Step Done #10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfredo </t>
+  </si>
+  <si>
+    <t>Cristian</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>Attivita Management Requests</t>
   </si>
 </sst>
 </file>
@@ -438,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -496,6 +508,9 @@
       <c r="G2" t="s">
         <v>8</v>
       </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -547,6 +562,29 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/completezza funzionale.xlsx
+++ b/completezza funzionale.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salvc\Desktop\Ratatouille23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfre\Documents\GitHub\Ratatouille23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651DD8A0-F0EF-41E2-AF4A-BE1B34A396D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B201659E-A6B7-447F-9A2E-FAF07BC04273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Funzionalità #1</t>
   </si>
@@ -63,9 +63,6 @@
     <t>User Managment Requests</t>
   </si>
   <si>
-    <t>Signin Requests</t>
-  </si>
-  <si>
     <t>Login Requests</t>
   </si>
   <si>
@@ -109,6 +106,15 @@
   </si>
   <si>
     <t>Attivita Management Requests</t>
+  </si>
+  <si>
+    <t>/signup/admin</t>
+  </si>
+  <si>
+    <t>/signup/employee (con già login di un admin)</t>
+  </si>
+  <si>
+    <t>Signup Requests</t>
   </si>
 </sst>
 </file>
@@ -154,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -162,14 +168,166 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -453,138 +611,150 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="10" width="40.7109375" customWidth="1"/>
+    <col min="2" max="9" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="H13" t="s">
         <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/completezza funzionale.xlsx
+++ b/completezza funzionale.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfre\Documents\GitHub\Ratatouille23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salvc\Desktop\Ratatouille23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B201659E-A6B7-447F-9A2E-FAF07BC04273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7620B0-27A5-47CD-9121-785935A60D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3135" yWindow="1035" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Funzionalità #1</t>
   </si>
@@ -115,13 +115,34 @@
   </si>
   <si>
     <t>Signup Requests</t>
+  </si>
+  <si>
+    <t>setAvvisoViewed #incompleto</t>
+  </si>
+  <si>
+    <t>/avvisi-viewed/{id_user}</t>
+  </si>
+  <si>
+    <t>/avvisi-hidden/{id_user}</t>
+  </si>
+  <si>
+    <t>/login?email=&amp;&amp;password=</t>
+  </si>
+  <si>
+    <t>/user/{id}</t>
+  </si>
+  <si>
+    <t>/user?id_ristorante=</t>
+  </si>
+  <si>
+    <t>/avvisi?id_ristorante=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,14 +152,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -316,7 +329,6 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -328,6 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -610,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,25 +634,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -647,92 +660,111 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -758,7 +790,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/completezza funzionale.xlsx
+++ b/completezza funzionale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salvc\Desktop\Ratatouille23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7620B0-27A5-47CD-9121-785935A60D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F22129-9A92-4E36-801C-06A7FD10ADB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3135" yWindow="1035" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Funzionalità #1</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Signup Requests</t>
   </si>
   <si>
-    <t>setAvvisoViewed #incompleto</t>
-  </si>
-  <si>
     <t>/avvisi-viewed/{id_user}</t>
   </si>
   <si>
@@ -136,13 +133,22 @@
   </si>
   <si>
     <t>/avvisi?id_ristorante=</t>
+  </si>
+  <si>
+    <t>/avviso/crea</t>
+  </si>
+  <si>
+    <t>/avviso/segna-come-letto/{id_avviso}</t>
+  </si>
+  <si>
+    <t>/avviso/segna-come-nascosto/{id_avviso}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +170,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -340,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -623,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,14 +700,17 @@
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>33</v>
+      <c r="B3" t="s">
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -703,11 +720,11 @@
       <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>35</v>
+      <c r="D4" t="s">
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -715,7 +732,7 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -723,7 +740,7 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -731,13 +748,16 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -748,6 +768,7 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">

--- a/completezza funzionale.xlsx
+++ b/completezza funzionale.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salvc\Desktop\Ratatouille23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfre\Documents\GitHub\Ratatouille23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F22129-9A92-4E36-801C-06A7FD10ADB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6080C13F-8215-4F4C-B4F3-24C01D511E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="1035" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Funzionalità #1</t>
   </si>
@@ -111,9 +111,6 @@
     <t>/signup/admin</t>
   </si>
   <si>
-    <t>/signup/employee (con già login di un admin)</t>
-  </si>
-  <si>
     <t>Signup Requests</t>
   </si>
   <si>
@@ -142,6 +139,48 @@
   </si>
   <si>
     <t>/avviso/segna-come-nascosto/{id_avviso}</t>
+  </si>
+  <si>
+    <t>/signup/newEmployee (con già login di un admin)</t>
+  </si>
+  <si>
+    <t>/signup/employee</t>
+  </si>
+  <si>
+    <t>/menu/categoria/{id_ristorante}</t>
+  </si>
+  <si>
+    <t>/menu/{id_ristorante}</t>
+  </si>
+  <si>
+    <t>/menu/categoria/piatti</t>
+  </si>
+  <si>
+    <t>/menu/ristorante/piatto</t>
+  </si>
+  <si>
+    <t>/menu/piatto</t>
+  </si>
+  <si>
+    <t>/dispensa/{id_ristorante}</t>
+  </si>
+  <si>
+    <t>/dispensa/categoria</t>
+  </si>
+  <si>
+    <t>/dispensa/prodotto</t>
+  </si>
+  <si>
+    <t>/dispensa/prodotto/disponibili</t>
+  </si>
+  <si>
+    <t>/menu/newPlate</t>
+  </si>
+  <si>
+    <t>/dispensa/newProduct</t>
+  </si>
+  <si>
+    <t>/menu/piatto/secondaLingua</t>
   </si>
 </sst>
 </file>
@@ -637,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +717,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>11</v>
@@ -701,16 +740,22 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -718,50 +763,83 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
